--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll4-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll4-Notch4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.05990033333333</v>
+        <v>30.75612566666667</v>
       </c>
       <c r="H2">
-        <v>96.17970099999999</v>
+        <v>92.268377</v>
       </c>
       <c r="I2">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="J2">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N2">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O2">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P2">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q2">
-        <v>1514.958017392928</v>
+        <v>1534.507483814746</v>
       </c>
       <c r="R2">
-        <v>13634.62215653635</v>
+        <v>13810.56735433271</v>
       </c>
       <c r="S2">
-        <v>0.8813617841282609</v>
+        <v>0.8471068713395291</v>
       </c>
       <c r="T2">
-        <v>0.8813617841282608</v>
+        <v>0.8471068713395292</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.05990033333333</v>
+        <v>30.75612566666667</v>
       </c>
       <c r="H3">
-        <v>96.17970099999999</v>
+        <v>92.268377</v>
       </c>
       <c r="I3">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="J3">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>12.067552</v>
       </c>
       <c r="O3">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P3">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q3">
-        <v>128.9615047957724</v>
+        <v>123.7170486003449</v>
       </c>
       <c r="R3">
-        <v>1160.653543161952</v>
+        <v>1113.453437403104</v>
       </c>
       <c r="S3">
-        <v>0.07502633118920768</v>
+        <v>0.06829654666177624</v>
       </c>
       <c r="T3">
-        <v>0.07502633118920767</v>
+        <v>0.06829654666177624</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.05990033333333</v>
+        <v>30.75612566666667</v>
       </c>
       <c r="H4">
-        <v>96.17970099999999</v>
+        <v>92.268377</v>
       </c>
       <c r="I4">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="J4">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N4">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O4">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P4">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q4">
-        <v>25.30554190437356</v>
+        <v>38.94548748363678</v>
       </c>
       <c r="R4">
-        <v>227.749877139362</v>
+        <v>350.509387352731</v>
       </c>
       <c r="S4">
-        <v>0.01472208292580456</v>
+        <v>0.02149939990715562</v>
       </c>
       <c r="T4">
-        <v>0.01472208292580455</v>
+        <v>0.02149939990715562</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.05990033333333</v>
+        <v>30.75612566666667</v>
       </c>
       <c r="H5">
-        <v>96.17970099999999</v>
+        <v>92.268377</v>
       </c>
       <c r="I5">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="J5">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N5">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O5">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P5">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q5">
-        <v>10.290554749093</v>
+        <v>6.787333576413221</v>
       </c>
       <c r="R5">
-        <v>92.61499274183699</v>
+        <v>61.086002187719</v>
       </c>
       <c r="S5">
-        <v>0.005986767678841746</v>
+        <v>0.003746867950334001</v>
       </c>
       <c r="T5">
-        <v>0.005986767678841745</v>
+        <v>0.003746867950334001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.05990033333333</v>
+        <v>30.75612566666667</v>
       </c>
       <c r="H6">
-        <v>96.17970099999999</v>
+        <v>92.268377</v>
       </c>
       <c r="I6">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="J6">
-        <v>0.992075962021671</v>
+        <v>0.9777985798685588</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N6">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O6">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P6">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q6">
-        <v>25.74714565819833</v>
+        <v>67.29405438924243</v>
       </c>
       <c r="R6">
-        <v>231.724310923785</v>
+        <v>605.646489503182</v>
       </c>
       <c r="S6">
-        <v>0.01497899609955609</v>
+        <v>0.03714889400976377</v>
       </c>
       <c r="T6">
-        <v>0.01497899609955608</v>
+        <v>0.03714889400976377</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.455806</v>
       </c>
       <c r="I7">
-        <v>0.004701555226765051</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="J7">
-        <v>0.004701555226765052</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N7">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O7">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P7">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q7">
-        <v>7.179549810368001</v>
+        <v>7.580470589264445</v>
       </c>
       <c r="R7">
-        <v>64.61594829331202</v>
+        <v>68.22423530338001</v>
       </c>
       <c r="S7">
-        <v>0.004176868769600002</v>
+        <v>0.004184709942365036</v>
       </c>
       <c r="T7">
-        <v>0.004176868769600002</v>
+        <v>0.004184709942365037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.455806</v>
       </c>
       <c r="I8">
-        <v>0.004701555226765051</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="J8">
-        <v>0.004701555226765052</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>12.067552</v>
       </c>
       <c r="O8">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P8">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q8">
         <v>0.6111625118791111</v>
@@ -948,10 +948,10 @@
         <v>5.500462606912</v>
       </c>
       <c r="S8">
-        <v>0.0003555578938016037</v>
+        <v>0.0003373851015903052</v>
       </c>
       <c r="T8">
-        <v>0.0003555578938016037</v>
+        <v>0.0003373851015903052</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.455806</v>
       </c>
       <c r="I9">
-        <v>0.004701555226765051</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="J9">
-        <v>0.004701555226765052</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N9">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O9">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P9">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q9">
-        <v>0.1199256985968889</v>
+        <v>0.1923908000242222</v>
       </c>
       <c r="R9">
-        <v>1.079331287372</v>
+        <v>1.731517200218</v>
       </c>
       <c r="S9">
-        <v>6.976954243265188E-05</v>
+        <v>0.0001062070862488561</v>
       </c>
       <c r="T9">
-        <v>6.976954243265188E-05</v>
+        <v>0.0001062070862488562</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.455806</v>
       </c>
       <c r="I10">
-        <v>0.004701555226765051</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="J10">
-        <v>0.004701555226765052</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N10">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O10">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P10">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q10">
-        <v>0.048768051358</v>
+        <v>0.03352944387577778</v>
       </c>
       <c r="R10">
-        <v>0.438912462222</v>
+        <v>0.301764994882</v>
       </c>
       <c r="S10">
-        <v>2.837193919559119E-05</v>
+        <v>1.85095365118424E-05</v>
       </c>
       <c r="T10">
-        <v>2.837193919559119E-05</v>
+        <v>1.85095365118424E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>0.455806</v>
       </c>
       <c r="I11">
-        <v>0.004701555226765051</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="J11">
-        <v>0.004701555226765052</v>
+        <v>0.004830327290741966</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N11">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O11">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P11">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q11">
-        <v>0.1220185065233333</v>
+        <v>0.3324327873995556</v>
       </c>
       <c r="R11">
-        <v>1.09816655871</v>
+        <v>2.991895086596</v>
       </c>
       <c r="S11">
-        <v>7.09870817352017E-05</v>
+        <v>0.0001835156240259259</v>
       </c>
       <c r="T11">
-        <v>7.09870817352017E-05</v>
+        <v>0.0001835156240259259</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.08795966666666666</v>
+        <v>0.4673666666666667</v>
       </c>
       <c r="H12">
-        <v>0.263879</v>
+        <v>1.4021</v>
       </c>
       <c r="I12">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="J12">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N12">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O12">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P12">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q12">
-        <v>4.156444681312</v>
+        <v>23.31820514255556</v>
       </c>
       <c r="R12">
-        <v>37.408002131808</v>
+        <v>209.863846283</v>
       </c>
       <c r="S12">
-        <v>0.002418107602912816</v>
+        <v>0.01287254184936139</v>
       </c>
       <c r="T12">
-        <v>0.002418107602912815</v>
+        <v>0.01287254184936139</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.08795966666666666</v>
+        <v>0.4673666666666667</v>
       </c>
       <c r="H13">
-        <v>0.263879</v>
+        <v>1.4021</v>
       </c>
       <c r="I13">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="J13">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>12.067552</v>
       </c>
       <c r="O13">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P13">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q13">
-        <v>0.3538192838008888</v>
+        <v>1.879990517688889</v>
       </c>
       <c r="R13">
-        <v>3.184373554207999</v>
+        <v>16.9199146592</v>
       </c>
       <c r="S13">
-        <v>0.0002058425326969662</v>
+        <v>0.001037826730977142</v>
       </c>
       <c r="T13">
-        <v>0.0002058425326969662</v>
+        <v>0.001037826730977142</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.08795966666666666</v>
+        <v>0.4673666666666667</v>
       </c>
       <c r="H14">
-        <v>0.263879</v>
+        <v>1.4021</v>
       </c>
       <c r="I14">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="J14">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N14">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O14">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P14">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q14">
-        <v>0.06942838273311111</v>
+        <v>0.5918112984777779</v>
       </c>
       <c r="R14">
-        <v>0.6248554445979999</v>
+        <v>5.326301686300001</v>
       </c>
       <c r="S14">
-        <v>4.039156370821302E-05</v>
+        <v>0.0003267024910368034</v>
       </c>
       <c r="T14">
-        <v>4.039156370821302E-05</v>
+        <v>0.0003267024910368035</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.08795966666666666</v>
+        <v>0.4673666666666667</v>
       </c>
       <c r="H15">
-        <v>0.263879</v>
+        <v>1.4021</v>
       </c>
       <c r="I15">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="J15">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N15">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O15">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P15">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q15">
-        <v>0.028233205847</v>
+        <v>0.1031395665222222</v>
       </c>
       <c r="R15">
-        <v>0.254098852623</v>
+        <v>0.9282560987</v>
       </c>
       <c r="S15">
-        <v>1.642531897999018E-05</v>
+        <v>5.693698885765925E-05</v>
       </c>
       <c r="T15">
-        <v>1.642531897999018E-05</v>
+        <v>5.693698885765925E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>26</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.08795966666666666</v>
+        <v>0.4673666666666667</v>
       </c>
       <c r="H16">
-        <v>0.263879</v>
+        <v>1.4021</v>
       </c>
       <c r="I16">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="J16">
-        <v>0.00272186344998428</v>
+        <v>0.01485851852399773</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N16">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O16">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P16">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q16">
-        <v>0.07063996850166666</v>
+        <v>1.022592969844444</v>
       </c>
       <c r="R16">
-        <v>0.635759716515</v>
+        <v>9.2033367286</v>
       </c>
       <c r="S16">
-        <v>4.10964316862948E-05</v>
+        <v>0.000564510463764739</v>
       </c>
       <c r="T16">
-        <v>4.10964316862948E-05</v>
+        <v>0.000564510463764739</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.016178</v>
+        <v>0.07903166666666667</v>
       </c>
       <c r="H17">
-        <v>0.048534</v>
+        <v>0.237095</v>
       </c>
       <c r="I17">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="J17">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.253984</v>
+        <v>49.89274333333334</v>
       </c>
       <c r="N17">
-        <v>141.761952</v>
+        <v>149.67823</v>
       </c>
       <c r="O17">
-        <v>0.8884015114449556</v>
+        <v>0.8663408689480834</v>
       </c>
       <c r="P17">
-        <v>0.8884015114449555</v>
+        <v>0.8663408689480835</v>
       </c>
       <c r="Q17">
-        <v>0.7644749531520001</v>
+        <v>3.943106660205556</v>
       </c>
       <c r="R17">
-        <v>6.880274578368001</v>
+        <v>35.48795994185</v>
       </c>
       <c r="S17">
-        <v>0.0004447509441818812</v>
+        <v>0.002176745816827857</v>
       </c>
       <c r="T17">
-        <v>0.0004447509441818811</v>
+        <v>0.002176745816827857</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.016178</v>
+        <v>0.07903166666666667</v>
       </c>
       <c r="H18">
-        <v>0.048534</v>
+        <v>0.237095</v>
       </c>
       <c r="I18">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="J18">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>12.067552</v>
       </c>
       <c r="O18">
-        <v>0.07562559124637756</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="P18">
-        <v>0.07562559124637755</v>
+        <v>0.06984725491313053</v>
       </c>
       <c r="Q18">
-        <v>0.06507628541866667</v>
+        <v>0.3179062490488889</v>
       </c>
       <c r="R18">
-        <v>0.585686568768</v>
+        <v>2.86115624144</v>
       </c>
       <c r="S18">
-        <v>3.78596306713098E-05</v>
+        <v>0.0001754964187868379</v>
       </c>
       <c r="T18">
-        <v>3.78596306713098E-05</v>
+        <v>0.0001754964187868379</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.016178</v>
+        <v>0.07903166666666667</v>
       </c>
       <c r="H19">
-        <v>0.048534</v>
+        <v>0.237095</v>
       </c>
       <c r="I19">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="J19">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.7893206666666667</v>
+        <v>1.266267666666667</v>
       </c>
       <c r="N19">
-        <v>2.367962</v>
+        <v>3.798803</v>
       </c>
       <c r="O19">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="P19">
-        <v>0.01483967305870774</v>
+        <v>0.02198755485004457</v>
       </c>
       <c r="Q19">
-        <v>0.01276962974533333</v>
+        <v>0.1000752441427778</v>
       </c>
       <c r="R19">
-        <v>0.114926667708</v>
+        <v>0.9006771972850001</v>
       </c>
       <c r="S19">
-        <v>7.429026762320652E-06</v>
+        <v>5.524536560328856E-05</v>
       </c>
       <c r="T19">
-        <v>7.42902676232065E-06</v>
+        <v>5.524536560328857E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.016178</v>
+        <v>0.07903166666666667</v>
       </c>
       <c r="H20">
-        <v>0.048534</v>
+        <v>0.237095</v>
       </c>
       <c r="I20">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="J20">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.320979</v>
+        <v>0.2206823333333333</v>
       </c>
       <c r="N20">
-        <v>0.9629369999999999</v>
+        <v>0.6620469999999999</v>
       </c>
       <c r="O20">
-        <v>0.006034585967229564</v>
+        <v>0.003831942516052412</v>
       </c>
       <c r="P20">
-        <v>0.006034585967229563</v>
+        <v>0.003831942516052413</v>
       </c>
       <c r="Q20">
-        <v>0.005192798262</v>
+        <v>0.01744089260722222</v>
       </c>
       <c r="R20">
-        <v>0.046735184358</v>
+        <v>0.156968033465</v>
       </c>
       <c r="S20">
-        <v>3.021030212236835E-06</v>
+        <v>9.628040348910004E-06</v>
       </c>
       <c r="T20">
-        <v>3.021030212236835E-06</v>
+        <v>9.628040348910006E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>26</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.016178</v>
+        <v>0.07903166666666667</v>
       </c>
       <c r="H21">
-        <v>0.048534</v>
+        <v>0.237095</v>
       </c>
       <c r="I21">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="J21">
-        <v>0.0005006193015796523</v>
+        <v>0.002512574316701549</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.803095</v>
+        <v>2.187988666666667</v>
       </c>
       <c r="N21">
-        <v>2.409285</v>
+        <v>6.563966</v>
       </c>
       <c r="O21">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="P21">
-        <v>0.01509863828272948</v>
+        <v>0.03799237877268909</v>
       </c>
       <c r="Q21">
-        <v>0.01299247091</v>
+        <v>0.1729203909744444</v>
       </c>
       <c r="R21">
-        <v>0.11693223819</v>
+        <v>1.55628351877</v>
       </c>
       <c r="S21">
-        <v>7.558669751903836E-06</v>
+        <v>9.545867513465572E-05</v>
       </c>
       <c r="T21">
-        <v>7.558669751903835E-06</v>
+        <v>9.545867513465572E-05</v>
       </c>
     </row>
   </sheetData>
